--- a/Docs/TablasDatos-Lab6.xlsx
+++ b/Docs/TablasDatos-Lab6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\2025-2\Asistencia\Laboratorios\Lab6\ISIS1225-Laboratorio-6\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c7b6f5eba236f6e/Documents/EDA LAB1/Laboratorio6-G02/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD33DA02-4501-4B58-9D83-E0FFBD1B4D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{FD33DA02-4501-4B58-9D83-E0FFBD1B4D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBE673E7-B0CA-431A-8759-05B92083A7E7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab6" sheetId="1" r:id="rId1"/>
@@ -626,6 +626,12 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>1948845.7309999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1942633.38</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -635,6 +641,12 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>677574.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>509106.66</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -733,6 +745,12 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1962150.8489999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1962150.13</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -742,6 +760,12 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>129771.908</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193370.986</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1299,6 +1323,12 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>1948845.7309999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1942633.38</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1445,6 +1475,12 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1962150.8489999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1962150.13</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2823,7 +2859,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CAFD5B44-21B9-42C7-B503-C146EF1BA3EE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="83" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2834,7 +2870,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{680E7371-595A-4F03-ABE3-E0257A96E5F2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="83" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2845,7 +2881,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9297051" cy="6073205"/>
+    <xdr:ext cx="8666602" cy="6279614"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2878,7 +2914,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9297051" cy="6073205"/>
+    <xdr:ext cx="8666602" cy="6279614"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2905,6 +2941,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3231,24 +3271,24 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C14"/>
+      <selection activeCell="I18" sqref="I10:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3259,42 +3299,50 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>0.1</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>0.5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="2">
+        <v>1948845.7309999999</v>
+      </c>
+      <c r="C4" s="7">
+        <v>677574.54</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>0.7</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="2">
+        <v>1942633.38</v>
+      </c>
+      <c r="C5" s="7">
+        <v>509106.66</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>0.9</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -3305,35 +3353,43 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="2">
+        <v>1962150.8489999999</v>
+      </c>
+      <c r="C11" s="5">
+        <v>129771.908</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="2">
+        <v>1962150.13</v>
+      </c>
+      <c r="C12" s="2">
+        <v>193370.986</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>6</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>8</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="23" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="14.7" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
